--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>Item</t>
   </si>
@@ -167,9 +167,6 @@
     <t>10 nF 0603  X5R</t>
   </si>
   <si>
-    <t>33 uH 0603</t>
-  </si>
-  <si>
     <t>RN52 Shenzen</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Digikey Cost</t>
   </si>
   <si>
-    <t>490-14481-1-ND</t>
-  </si>
-  <si>
     <t>**</t>
   </si>
   <si>
@@ -350,13 +344,19 @@
     <t>MC34735</t>
   </si>
   <si>
-    <t>¤</t>
-  </si>
-  <si>
     <t>1776275-2</t>
   </si>
   <si>
     <t>2 Hole Terminal Block</t>
+  </si>
+  <si>
+    <t>TFT</t>
+  </si>
+  <si>
+    <t>PJRC TFT</t>
+  </si>
+  <si>
+    <t>Ferrite Bead</t>
   </si>
 </sst>
 </file>
@@ -754,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
@@ -795,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>2491389</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4" s="8">
         <v>5</v>
@@ -884,10 +884,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8">
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
@@ -927,107 +927,117 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7">
-        <v>2483133</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3.93</v>
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="8">
+        <v>10</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" s="8">
-        <f>N7*E7</f>
-        <v>3.93</v>
+        <f>M7*N7</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>2727509</v>
+        <v>2483133</v>
       </c>
       <c r="E8" s="8">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" s="8">
         <f>N8*E8</f>
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>2464250</v>
+        <v>2727509</v>
       </c>
       <c r="E9" s="8">
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="8">
         <f>N9*E9</f>
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>2464250</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.81</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <f>N10*E10</f>
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="12">
         <f>13.5/3</f>
         <v>4.5</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1037,10 +1047,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1051,122 +1064,112 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="8">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="M14" s="8">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="8">
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="8">
         <v>12.6</v>
       </c>
-      <c r="L15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="8">
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="8">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="O15" s="8">
-        <f>N15*K15</f>
+      <c r="O16" s="8">
+        <f>N16*K16</f>
         <v>25.2</v>
       </c>
-      <c r="P15" s="8">
-        <f>SUM(O3:O15)</f>
-        <v>90.940000000000012</v>
-      </c>
-      <c r="Q15" s="8">
-        <f>P15-O6-O15+2*M15-O3+K4</f>
-        <v>43.490000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="P16" s="8">
+        <f>SUM(O3:O16)</f>
+        <v>100.94000000000001</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>P16-O6-O16+2*M16-O3+K4</f>
+        <v>53.490000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17">
-        <v>2687486</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <f>N17*E17</f>
-        <v>0.45</v>
-      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>2687488</v>
+        <v>2687486</v>
       </c>
       <c r="E18" s="8">
         <v>0.45</v>
@@ -1175,153 +1178,145 @@
         <v>1</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" ref="O18:O21" si="0">N18*E18</f>
+        <f>N18*E18</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>2687488</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" ref="O19:O22" si="0">N19*E19</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20">
         <v>2531684</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>0.13900000000000001</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21">
         <v>1022262</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>0.40799999999999997</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="0"/>
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22">
         <v>1593469</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>0.75</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="P21" s="8">
-        <f>SUM(O17:O21)</f>
+      <c r="P22" s="8">
+        <f>SUM(O18:O22)</f>
         <v>3.4939999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23">
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
         <v>9695672</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>0.28299999999999997</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="10"/>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
-        <f>N23*E23</f>
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24">
-        <v>1759399</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
       <c r="H24" s="4"/>
       <c r="I24" s="13"/>
       <c r="J24" s="4"/>
@@ -1329,28 +1324,28 @@
       <c r="L24" s="4"/>
       <c r="M24" s="10"/>
       <c r="N24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8">
         <f>N24*E24</f>
-        <v>3.206</v>
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>2627437</v>
+        <v>1759399</v>
       </c>
       <c r="E25" s="8">
-        <v>3.0599999999999999E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1361,24 +1356,28 @@
       <c r="L25" s="4"/>
       <c r="M25" s="10"/>
       <c r="N25">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="O25" s="8">
+        <f>N25*E25</f>
+        <v>2.29</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>9406204</v>
+        <v>2627437</v>
       </c>
       <c r="E26" s="8">
-        <v>1.38E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1389,24 +1388,24 @@
       <c r="L26" s="4"/>
       <c r="M26" s="10"/>
       <c r="N26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>2627426</v>
+        <v>9406204</v>
       </c>
       <c r="E27" s="8">
-        <v>9.1999999999999998E-3</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1422,17 +1421,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0.27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28">
+        <v>2627426</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="4"/>
       <c r="I28" s="13"/>
       <c r="J28" s="4"/>
@@ -1440,28 +1444,24 @@
       <c r="L28" s="4"/>
       <c r="M28" s="10"/>
       <c r="N28">
-        <v>4</v>
-      </c>
-      <c r="O28" s="8">
-        <f>N28*G28</f>
-        <v>1.08</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="B29" s="4">
+        <v>742792031</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D29">
-        <v>2614306</v>
+        <v>1635734</v>
       </c>
       <c r="E29" s="10">
-        <v>0.152</v>
+        <v>0.26</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1472,24 +1472,28 @@
       <c r="L29" s="4"/>
       <c r="M29" s="10"/>
       <c r="N29">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O29" s="8">
+        <f>N29*E29</f>
+        <v>1.04</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>2531713</v>
+        <v>2614306</v>
       </c>
       <c r="E30" s="10">
-        <v>0.13900000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1505,16 +1509,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D31">
-        <v>2531712</v>
+        <v>2531713</v>
       </c>
       <c r="E31" s="10">
         <v>0.13900000000000001</v>
@@ -1528,21 +1532,21 @@
       <c r="L31" s="4"/>
       <c r="M31" s="10"/>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>2531715</v>
+        <v>2531712</v>
       </c>
       <c r="E32" s="10">
         <v>0.13900000000000001</v>
@@ -1556,25 +1560,27 @@
       <c r="L32" s="4"/>
       <c r="M32" s="10"/>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D33">
-        <v>1098611</v>
+        <v>2531715</v>
       </c>
       <c r="E33" s="10">
-        <v>0.24</v>
-      </c>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="4"/>
       <c r="I33" s="13"/>
       <c r="J33" s="4"/>
@@ -1582,256 +1588,262 @@
       <c r="L33" s="4"/>
       <c r="M33" s="10"/>
       <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>1098611</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="10"/>
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="O33" s="8">
-        <f>N33*E33</f>
+      <c r="O34" s="8">
+        <f>N34*E34</f>
         <v>0.48</v>
       </c>
-      <c r="P33" s="8">
-        <f>SUM(O23:O33)</f>
-        <v>5.0489999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="P34" s="8">
+        <f>SUM(O24:O34)</f>
+        <v>4.093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35">
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36">
         <v>9695672</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>0.28299999999999997</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" s="8">
-        <f>N35*E35</f>
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36">
-        <v>2525020</v>
-      </c>
-      <c r="E36" s="8">
-        <v>5.1400000000000001E-2</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36" s="8">
         <f>N36*E36</f>
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>2525020</v>
+      </c>
+      <c r="E37" s="8">
         <v>5.1400000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37">
-        <v>2335905</v>
-      </c>
-      <c r="E37" s="8">
-        <v>8.5500000000000007E-2</v>
-      </c>
       <c r="N37">
         <v>1</v>
+      </c>
+      <c r="O37" s="8">
+        <f>N37*E37</f>
+        <v>5.1400000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <v>2335905</v>
+      </c>
+      <c r="E38" s="8">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39">
         <v>2531714</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>0.13900000000000001</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="P38" s="8">
-        <f>SUM(O35:O38)</f>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="8">
+        <f>SUM(O36:O39)</f>
         <v>0.33439999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40">
-        <v>9227881</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="14"/>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="O40" s="8">
-        <f>N40*E40</f>
-        <v>0.38</v>
-      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D41">
-        <v>2320887</v>
+        <v>9227881</v>
       </c>
       <c r="E41" s="8">
-        <v>0.21</v>
-      </c>
+        <v>0.19</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="14"/>
       <c r="N41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" ref="O41:O42" si="1">N41*E41</f>
-        <v>0.21</v>
+        <f>N41*E41</f>
+        <v>0.38</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D42">
+        <v>2320887</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" ref="O42:O43" si="1">N42*E42</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43">
         <v>2061634</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>0.32</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" s="8">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="8">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43">
-        <v>2531704</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>2531712</v>
+        <v>2531704</v>
       </c>
       <c r="E44" s="10">
         <v>0.13900000000000001</v>
@@ -1842,16 +1854,16 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D45">
-        <v>2531715</v>
+        <v>2531712</v>
       </c>
       <c r="E45" s="10">
         <v>0.13900000000000001</v>
@@ -1862,16 +1874,16 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D46">
-        <v>2531716</v>
+        <v>2531715</v>
       </c>
       <c r="E46" s="10">
         <v>0.13900000000000001</v>
@@ -1882,196 +1894,216 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D47">
+        <v>2531716</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48">
         <v>2561864</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="P47" s="8">
-        <f>SUM(O40:O47)</f>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="P48" s="8">
+        <f>SUM(O41:O48)</f>
         <v>0.90999999999999992</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49">
-        <v>1593466</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="O49" s="8">
-        <f>N49*E49</f>
-        <v>1.022</v>
-      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>1593421</v>
+        <v>1593466</v>
       </c>
       <c r="E50" s="10">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="L50" t="s">
-        <v>68</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0.85</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50" s="8">
-        <f>M50*N50</f>
+        <f>N50*E50</f>
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>1593421</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L51" t="s">
+        <v>67</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" s="8">
+        <f>M51*N51</f>
         <v>1.7</v>
       </c>
-      <c r="P50" s="8">
-        <f>SUM(O50)</f>
+      <c r="P51" s="8">
+        <f>SUM(O51)</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="20" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="17"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="17"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" s="8">
+      <c r="C53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" s="8">
         <v>1.5</v>
       </c>
-      <c r="P52" s="8">
-        <f>O52*N52</f>
+      <c r="P53" s="8">
+        <f>O53*N53</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P53" s="15">
-        <f>SUM(P50,P47,P38,P33,P21,P15,P52)</f>
-        <v>103.92740000000001</v>
-      </c>
-      <c r="Q53" s="8">
-        <f>Q15+P21+P33+P38+P47+P50+P52</f>
-        <v>56.47740000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P54" s="15">
+        <f>SUM(P51,P48,P39,P34,P22,P16,P53)</f>
+        <v>112.97140000000002</v>
+      </c>
+      <c r="Q54" s="8">
+        <f>Q16+P22+P34+P39+P48+P51+P53</f>
+        <v>65.521400000000014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="B51:O51"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="B52:O52"/>
     <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
